--- a/брест интермебель.xlsx
+++ b/брест интермебель.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="254">
   <si>
     <t>МДФ</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Кухня Лаура-10</t>
-  </si>
-  <si>
-    <t>Угловая п</t>
   </si>
   <si>
     <t>Кухня Алла-1</t>
@@ -1152,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D137" sqref="D2:E137"/>
     </sheetView>
   </sheetViews>
@@ -1198,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,7 +1617,7 @@
         <v>2124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,7 +1635,7 @@
         <v>2125</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,7 +1653,7 @@
         <v>2126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1666,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1671,7 @@
         <v>2127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1684,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,7 +1689,7 @@
         <v>2128</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1702,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,7 +1707,7 @@
         <v>2129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,7 +1725,7 @@
         <v>2130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,7 +1743,7 @@
         <v>2131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1756,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1761,7 @@
         <v>2132</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,7 +1779,7 @@
         <v>2133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1792,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1797,7 @@
         <v>2134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1810,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,7 +1815,7 @@
         <v>2135</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1828,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,7 +1833,7 @@
         <v>2136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,7 +1851,7 @@
         <v>2137</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1864,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,7 +1869,7 @@
         <v>2138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1882,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>2139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1900,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,7 +1905,7 @@
         <v>2140</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1918,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,7 +1923,7 @@
         <v>2141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,7 +1941,7 @@
         <v>2142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1954,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,7 +1959,7 @@
         <v>2143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1972,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,7 +1977,7 @@
         <v>2144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1990,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,7 +1995,7 @@
         <v>2145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2008,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,7 +2013,7 @@
         <v>2146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,7 +2031,7 @@
         <v>2147</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2044,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,7 +2049,7 @@
         <v>2148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2062,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2067,7 @@
         <v>2149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2080,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,7 +2085,7 @@
         <v>2150</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2098,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,7 +2103,7 @@
         <v>2151</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2116,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2121,7 @@
         <v>2152</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2134,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,7 +2139,7 @@
         <v>2153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2152,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2160,7 +2157,7 @@
         <v>2154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2170,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2178,7 +2175,7 @@
         <v>2155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2193,7 @@
         <v>2156</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,7 +2211,7 @@
         <v>2157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2224,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,7 +2229,7 @@
         <v>2158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2250,7 +2247,7 @@
         <v>2159</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2260,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,7 +2265,7 @@
         <v>2160</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,7 +2283,7 @@
         <v>2161</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2296,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,7 +2301,7 @@
         <v>2162</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,7 +2319,7 @@
         <v>2163</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2332,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2337,7 @@
         <v>2164</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2350,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,7 +2355,7 @@
         <v>2165</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" ref="C67:C130" si="1">"public://"&amp;A67&amp;".jpg"</f>
@@ -2368,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2373,7 @@
         <v>2166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2386,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <v>2167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2404,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,7 +2409,7 @@
         <v>2168</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,7 +2427,7 @@
         <v>2169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2440,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,7 +2445,7 @@
         <v>2170</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2458,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,7 +2463,7 @@
         <v>2171</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2476,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,7 +2481,7 @@
         <v>2172</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2494,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2502,7 +2499,7 @@
         <v>2173</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2512,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,7 +2517,7 @@
         <v>2174</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2530,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2535,7 @@
         <v>2175</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2548,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,7 +2553,7 @@
         <v>2176</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,7 +2571,7 @@
         <v>2177</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2584,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,7 +2589,7 @@
         <v>2178</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2602,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,7 +2607,7 @@
         <v>2179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2620,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2628,7 +2625,7 @@
         <v>2207</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2638,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,7 +2643,7 @@
         <v>2209</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2656,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,7 +2661,7 @@
         <v>2210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>2211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2692,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,7 +2697,7 @@
         <v>2212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2710,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,7 +2715,7 @@
         <v>2213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2728,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,7 +2733,7 @@
         <v>2214</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2746,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,7 +2751,7 @@
         <v>2215</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2764,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,7 +2769,7 @@
         <v>2216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,7 +2787,7 @@
         <v>2217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2800,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,7 +2805,7 @@
         <v>2218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2818,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,7 +2823,7 @@
         <v>2215</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,7 +2841,7 @@
         <v>2221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2854,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,7 +2859,7 @@
         <v>2222</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2872,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,7 +2877,7 @@
         <v>2223</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2890,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>2224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2908,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,7 +2913,7 @@
         <v>2225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>2226</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2944,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,7 +2949,7 @@
         <v>2227</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2962,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>2228</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2980,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,7 +2985,7 @@
         <v>2229</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2998,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,7 +3003,7 @@
         <v>2230</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3016,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +3021,7 @@
         <v>2231</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3034,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3039,7 @@
         <v>2232</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3052,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,7 +3057,7 @@
         <v>2233</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3070,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3075,7 @@
         <v>2234</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3088,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,7 +3093,7 @@
         <v>2235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3106,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,7 +3111,7 @@
         <v>2236</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3124,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3132,7 +3129,7 @@
         <v>2237</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3142,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
         <v>2238</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3160,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,7 +3165,7 @@
         <v>2239</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3178,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,7 +3183,7 @@
         <v>2240</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3196,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3204,7 +3201,7 @@
         <v>2241</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3214,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3222,7 +3219,7 @@
         <v>2242</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3232,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3237,7 @@
         <v>2243</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3250,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>2244</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3268,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,7 +3273,7 @@
         <v>2245</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3286,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3294,7 +3291,7 @@
         <v>2246</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3304,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,7 +3309,7 @@
         <v>2247</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3322,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,7 +3327,7 @@
         <v>2248</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3340,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3348,7 +3345,7 @@
         <v>2249</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3358,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3366,7 +3363,7 @@
         <v>2250</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3376,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3381,7 @@
         <v>2251</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C124" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3394,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3399,7 @@
         <v>2252</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3412,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3420,7 +3417,7 @@
         <v>2253</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3430,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3438,7 +3435,7 @@
         <v>2254</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3448,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3456,7 +3453,7 @@
         <v>2255</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,7 +3471,7 @@
         <v>2256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3484,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3492,7 +3489,7 @@
         <v>2257</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C130" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3502,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,7 +3507,7 @@
         <v>2258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C131" s="1" t="str">
         <f t="shared" ref="C131:C137" si="2">"public://"&amp;A131&amp;".jpg"</f>
@@ -3520,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,7 +3525,7 @@
         <v>2259</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3538,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>2260</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C133" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3556,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>2261</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C134" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3574,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3582,7 +3579,7 @@
         <v>2262</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C135" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3592,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>2263</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C136" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3610,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,7 +3615,7 @@
         <v>2264</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C137" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3628,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3641,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S2" s="3">
         <v>1</v>
@@ -3789,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
@@ -3824,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -3859,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -3894,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -3929,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S7" s="3">
         <v>1</v>
@@ -3964,10 +3961,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -3999,10 +3996,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -4034,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -4069,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -4104,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
@@ -4139,10 +4136,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
@@ -4174,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -4209,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
@@ -4241,10 +4238,10 @@
         <v>26</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S16" s="3">
         <v>1</v>
@@ -4273,10 +4270,10 @@
         <v>26</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
@@ -4305,10 +4302,10 @@
         <v>26</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S18" s="3">
         <v>1</v>
@@ -4337,10 +4334,10 @@
         <v>26</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S19" s="3">
         <v>1</v>
@@ -4369,10 +4366,10 @@
         <v>26</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S20" s="3">
         <v>1</v>
@@ -4401,10 +4398,10 @@
         <v>26</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S21" s="3">
         <v>1</v>
@@ -4433,10 +4430,10 @@
         <v>26</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S22" s="3">
         <v>1</v>
@@ -4465,10 +4462,10 @@
         <v>26</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S23" s="3">
         <v>1</v>
@@ -4497,10 +4494,10 @@
         <v>26</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S24" s="3">
         <v>1</v>
@@ -4523,16 +4520,16 @@
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S25" s="3">
         <v>1</v>
@@ -4555,16 +4552,16 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S26" s="3">
         <v>1</v>
@@ -4587,16 +4584,16 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S27" s="3">
         <v>1</v>
@@ -4619,7 +4616,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>26</v>
@@ -4628,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S28" s="3">
         <v>1</v>
@@ -4654,7 +4651,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>26</v>
@@ -4663,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S29" s="3">
         <v>1</v>
@@ -4689,7 +4686,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>26</v>
@@ -4698,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S30" s="3">
         <v>1</v>
@@ -4724,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>26</v>
@@ -4733,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S31" s="3">
         <v>1</v>
@@ -4759,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>26</v>
@@ -4768,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S32" s="3">
         <v>1</v>
@@ -4803,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S33" s="3">
         <v>1</v>
@@ -4838,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S34" s="3">
         <v>1</v>
@@ -4873,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S35" s="3">
         <v>1</v>
@@ -4908,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S36" s="3">
         <v>1</v>
@@ -4943,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S37" s="3">
         <v>1</v>
@@ -4978,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S38" s="3">
         <v>1</v>
@@ -5013,10 +5010,10 @@
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S39" s="3">
         <v>1</v>
@@ -5048,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S40" s="3">
         <v>1</v>
@@ -5083,10 +5080,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S41" s="3">
         <v>1</v>
@@ -5118,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S42" s="3">
         <v>1</v>
@@ -5153,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S43" s="3">
         <v>1</v>
@@ -5188,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S44" s="3">
         <v>1</v>
@@ -5223,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S45" s="3">
         <v>1</v>
@@ -5258,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S46" s="3">
         <v>1</v>
@@ -5293,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S47" s="3">
         <v>1</v>
@@ -5328,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S48" s="3">
         <v>1</v>
@@ -5363,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S49" s="3">
         <v>1</v>
@@ -5398,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S50" s="3">
         <v>1</v>
@@ -5433,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S51" s="3">
         <v>1</v>
@@ -5468,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S52" s="3">
         <v>1</v>
@@ -5503,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S53" s="3">
         <v>1</v>
@@ -5538,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S54" s="3">
         <v>1</v>
@@ -5564,7 +5561,7 @@
         <v>28</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>26</v>
@@ -5573,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S55" s="3">
         <v>1</v>
@@ -5599,7 +5596,7 @@
         <v>28</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>26</v>
@@ -5608,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S56" s="3">
         <v>1</v>
@@ -5634,7 +5631,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>26</v>
@@ -5643,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S57" s="3">
         <v>1</v>
@@ -5669,7 +5666,7 @@
         <v>28</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>26</v>
@@ -5678,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S58" s="3">
         <v>1</v>
@@ -5701,19 +5698,19 @@
         <v>Буфет БФ-1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S59" s="3">
         <v>1</v>
@@ -5733,7 +5730,7 @@
         <v>Буфет БФ-2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>29</v>
@@ -5742,10 +5739,10 @@
         <v>26</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S60" s="3">
         <v>1</v>
@@ -5765,19 +5762,19 @@
         <v>Гостиная Бавария-1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S61" s="3">
         <v>1</v>
@@ -5797,19 +5794,19 @@
         <v>Гостиная Бавария-2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S62" s="3">
         <v>1</v>
@@ -5829,19 +5826,19 @@
         <v>Гостиная Бавария-3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S63" s="3">
         <v>1</v>
@@ -5861,19 +5858,19 @@
         <v>Гостиная Бавария-4</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S64" s="3">
         <v>1</v>
@@ -5893,19 +5890,19 @@
         <v>Гостиная Фараон-1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S65" s="3">
         <v>1</v>
@@ -5925,19 +5922,19 @@
         <v>Гостиная Фараон-2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S66" s="3">
         <v>1</v>
@@ -5957,19 +5954,19 @@
         <v>Гостиная Ника-1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S67" s="3">
         <v>1</v>
@@ -5989,19 +5986,19 @@
         <v>Гостиная Ника-2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S68" s="3">
         <v>1</v>
@@ -6021,19 +6018,19 @@
         <v>Гостиная Ника-3</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S69" s="3">
         <v>1</v>
@@ -6053,19 +6050,19 @@
         <v>Гостиная Ника-4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S70" s="3">
         <v>1</v>
@@ -6085,19 +6082,19 @@
         <v>Гостиная Ника-5</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S71" s="3">
         <v>1</v>
@@ -6117,10 +6114,10 @@
         <v>Прихожая Визит-1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>26</v>
@@ -6129,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S72" s="3">
         <v>1</v>
@@ -6149,10 +6146,10 @@
         <v>Прихожая Визит-2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>26</v>
@@ -6161,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S73" s="3">
         <v>1</v>
@@ -6181,10 +6178,10 @@
         <v>Прихожая Визит-3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>26</v>
@@ -6193,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S74" s="3">
         <v>1</v>
@@ -6213,10 +6210,10 @@
         <v>Прихожая Визит-4</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>26</v>
@@ -6225,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S75" s="3">
         <v>1</v>
@@ -6245,10 +6242,10 @@
         <v>Детская Юниор</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>26</v>
@@ -6257,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S76" s="3">
         <v>1</v>
@@ -6277,10 +6274,10 @@
         <v>Детская Канди</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>26</v>
@@ -6289,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S77" s="3">
         <v>1</v>
@@ -6309,7 +6306,7 @@
         <v>Спальня Клио</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>26</v>
@@ -6318,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S78" s="3">
         <v>1</v>
@@ -6338,7 +6335,7 @@
         <v>Спальня Диметра</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>26</v>
@@ -6347,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S79" s="3">
         <v>1</v>
@@ -6367,7 +6364,7 @@
         <v>Спальня"Александрия"</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>26</v>
@@ -6376,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S80" s="3">
         <v>1</v>
@@ -6396,7 +6393,7 @@
         <v>Спальня Габриэла</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>26</v>
@@ -6405,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S81" s="3">
         <v>1</v>
@@ -6425,10 +6422,10 @@
         <v>Комод Гермес 2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>26</v>
@@ -6437,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S82" s="3">
         <v>1</v>
@@ -6457,10 +6454,10 @@
         <v>Комод Гермес 7</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>26</v>
@@ -6469,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S83" s="3">
         <v>1</v>
@@ -6489,10 +6486,10 @@
         <v>Комод Гермес 5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>26</v>
@@ -6501,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S84" s="3">
         <v>1</v>
@@ -6521,10 +6518,10 @@
         <v>Комод Гермес 5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>26</v>
@@ -6533,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S85" s="3">
         <v>1</v>
@@ -6553,10 +6550,10 @@
         <v>Комод Гермес 7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>26</v>
@@ -6565,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S86" s="3">
         <v>1</v>
@@ -6585,10 +6582,10 @@
         <v>Стол книга СТ-11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>26</v>
@@ -6597,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S87" s="3">
         <v>1</v>
@@ -6617,10 +6614,10 @@
         <v>Стол книга СТ-10</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>26</v>
@@ -6629,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S88" s="3">
         <v>1</v>
@@ -6649,10 +6646,10 @@
         <v>Стол компьютерный СК- 002 Белый</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>26</v>
@@ -6661,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S89" s="3">
         <v>1</v>
@@ -6681,10 +6678,10 @@
         <v>Стол компьютерный СК-003</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>26</v>
@@ -6693,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S90" s="3">
         <v>1</v>
@@ -6713,10 +6710,10 @@
         <v>Стол компьютерный СК-005</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>26</v>
@@ -6725,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S91" s="3">
         <v>1</v>
@@ -6745,10 +6742,10 @@
         <v>Стол компьютерный СК-017</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>26</v>
@@ -6757,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S92" s="3">
         <v>1</v>
@@ -6777,10 +6774,10 @@
         <v>Стол компьютерный СК- 002</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>26</v>
@@ -6789,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S93" s="3">
         <v>1</v>
@@ -6809,10 +6806,10 @@
         <v>Стол компьютерный СК-036</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>26</v>
@@ -6821,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S94" s="3">
         <v>1</v>
@@ -6841,7 +6838,7 @@
         <v xml:space="preserve">Зеркало "Визит" </v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>26</v>
@@ -6850,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S95" s="3">
         <v>1</v>
@@ -6870,7 +6867,7 @@
         <v>Вешалка "Визит"</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>26</v>
@@ -6879,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S96" s="3">
         <v>1</v>
@@ -6899,7 +6896,7 @@
         <v>Тумба "Визит"</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>26</v>
@@ -6908,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S97" s="3">
         <v>1</v>
@@ -6928,7 +6925,7 @@
         <v>Тумба с шуфлядами "Визит"</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>26</v>
@@ -6937,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S98" s="3">
         <v>1</v>
@@ -6957,7 +6954,7 @@
         <v>Тумба под обувь "Визит"</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>26</v>
@@ -6966,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S99" s="3">
         <v>1</v>
@@ -6986,7 +6983,7 @@
         <v>Тумба под обувь откидная "Визит"</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>26</v>
@@ -6995,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S100" s="3">
         <v>1</v>
@@ -7015,7 +7012,7 @@
         <v>Шкаф 600 "Визит"</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>26</v>
@@ -7024,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S101" s="3">
         <v>1</v>
@@ -7044,7 +7041,7 @@
         <v>Шкаф 800 "Визит"</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>26</v>
@@ -7053,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S102" s="3">
         <v>1</v>
@@ -7073,7 +7070,7 @@
         <v>Шкаф угловой "Визит"</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>26</v>
@@ -7082,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S103" s="3">
         <v>1</v>
@@ -7102,7 +7099,7 @@
         <v>Полка завершающая "Визит"</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>26</v>
@@ -7111,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S104" s="3">
         <v>1</v>
@@ -7131,10 +7128,10 @@
         <v>Кровать Клио КЛ-001</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>26</v>
@@ -7143,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S105" s="3">
         <v>1</v>
@@ -7163,10 +7160,10 @@
         <v>Зеркало Клио КЛ-002</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>26</v>
@@ -7175,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S106" s="3">
         <v>1</v>
@@ -7195,10 +7192,10 @@
         <v>Шкаф Клио КЛ-003</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>26</v>
@@ -7207,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S107" s="3">
         <v>1</v>
@@ -7227,10 +7224,10 @@
         <v>Шкаф Клио КЛ-003-1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>26</v>
@@ -7239,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S108" s="3">
         <v>1</v>
@@ -7259,10 +7256,10 @@
         <v>Шкаф Клио КЛ-003-2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>26</v>
@@ -7271,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S109" s="3">
         <v>1</v>
@@ -7291,10 +7288,10 @@
         <v>Комод Клио КЛ-004</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>26</v>
@@ -7303,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S110" s="3">
         <v>1</v>
@@ -7323,10 +7320,10 @@
         <v>Тумба Клио КЛ-005</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>26</v>
@@ -7335,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S111" s="3">
         <v>1</v>
@@ -7355,10 +7352,10 @@
         <v>Кровать Деметра ДМ-001</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>26</v>
@@ -7367,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S112" s="3">
         <v>1</v>
@@ -7387,10 +7384,10 @@
         <v>Шкаф Деметра ДМ-002</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>26</v>
@@ -7399,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S113" s="3">
         <v>1</v>
@@ -7419,10 +7416,10 @@
         <v>Комод Деметра ДМ-003</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>26</v>
@@ -7431,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S114" s="3">
         <v>1</v>
@@ -7451,10 +7448,10 @@
         <v>Тумба Деметра ДМ-004</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>26</v>
@@ -7463,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S115" s="3">
         <v>1</v>
@@ -7483,10 +7480,10 @@
         <v>Кровать Александрия А-001</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>26</v>
@@ -7495,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S116" s="3">
         <v>1</v>
@@ -7515,10 +7512,10 @@
         <v>Кровать Александрия А-001-1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>26</v>
@@ -7527,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S117" s="3">
         <v>1</v>
@@ -7547,10 +7544,10 @@
         <v>Кровать Александрия А-001-2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>26</v>
@@ -7559,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S118" s="3">
         <v>1</v>
@@ -7579,10 +7576,10 @@
         <v>Кровать Александрия А-001-3</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>26</v>
@@ -7591,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S119" s="3">
         <v>1</v>
@@ -7611,10 +7608,10 @@
         <v>Шкаф Александрия А-008</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>26</v>
@@ -7623,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S120" s="3">
         <v>1</v>
@@ -7643,10 +7640,10 @@
         <v>Шкаф Александрия А-009</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>26</v>
@@ -7655,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S121" s="3">
         <v>1</v>
@@ -7675,10 +7672,10 @@
         <v>Шкаф Александрия А-003</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>26</v>
@@ -7687,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S122" s="3">
         <v>1</v>
@@ -7707,10 +7704,10 @@
         <v>Шкаф Александрия А-010</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>26</v>
@@ -7719,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S123" s="3">
         <v>1</v>
@@ -7739,10 +7736,10 @@
         <v>Шкаф Александрия А-007</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>26</v>
@@ -7751,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S124" s="3">
         <v>1</v>
@@ -7771,10 +7768,10 @@
         <v>Комод Александрия А-004</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>26</v>
@@ -7783,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S125" s="3">
         <v>1</v>
@@ -7803,10 +7800,10 @@
         <v>Столик Александрия А-006</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>26</v>
@@ -7815,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S126" s="3">
         <v>1</v>
@@ -7835,10 +7832,10 @@
         <v>Тумба правая Александрия А-005</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>26</v>
@@ -7847,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S127" s="3">
         <v>1</v>
@@ -7867,10 +7864,10 @@
         <v>Тумба левая Александрия А-005</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>26</v>
@@ -7879,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S128" s="3">
         <v>1</v>
@@ -7899,10 +7896,10 @@
         <v>Зеркало Александрия А-002</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>26</v>
@@ -7911,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S129" s="3">
         <v>1</v>
@@ -7931,10 +7928,10 @@
         <v>Шкаф-купе "Эдем-5" L-3</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>26</v>
@@ -7943,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S130" s="3">
         <v>1</v>
@@ -7963,10 +7960,10 @@
         <v>Шкаф-купе "Эдем-5" S-21</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>26</v>
@@ -7975,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S131" s="3">
         <v>1</v>
@@ -7995,10 +7992,10 @@
         <v>Шкаф-купе "Эдем-8" L-2</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>26</v>
@@ -8007,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S132" s="3">
         <v>1</v>
@@ -8027,10 +8024,10 @@
         <v>Шкаф-купе "Эдем-9" S-11</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>26</v>
@@ -8039,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S133" s="3">
         <v>1</v>
@@ -8059,10 +8056,10 @@
         <v xml:space="preserve">Шкаф-купе "Доминик-4"/левый L-2 </v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>26</v>
@@ -8071,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S134" s="3">
         <v>1</v>
@@ -8091,10 +8088,10 @@
         <v xml:space="preserve">Шкаф-купе "Доминик-4"/правый S-4 </v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>26</v>
@@ -8103,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S135" s="3">
         <v>1</v>
@@ -8123,10 +8120,10 @@
         <v xml:space="preserve">Шкаф-купе "Доминик-7"/правый L-3 </v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>26</v>
@@ -8135,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S136" s="3">
         <v>1</v>
@@ -8155,10 +8152,10 @@
         <v xml:space="preserve">Шкаф-купе "Доминик-7"/левый S-14 </v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>26</v>
@@ -8167,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S137" s="3">
         <v>1</v>
